--- a/Adult missing.xlsx
+++ b/Adult missing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnoknobbe/Git/SubDisc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8786F41F-0B7A-6E48-BCFB-9162D854B0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAA3A4E-F8A5-E841-8988-29DBCD0C0A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="4540" windowWidth="23600" windowHeight="17440" activeTab="1" xr2:uid="{B113CDC5-C1BE-8447-892E-423A09422FDB}"/>
+    <workbookView xWindow="14800" yWindow="4540" windowWidth="23600" windowHeight="17440" xr2:uid="{B113CDC5-C1BE-8447-892E-423A09422FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Core data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10303" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10305" uniqueCount="128">
   <si>
     <t>age</t>
   </si>
@@ -417,6 +417,9 @@
   <si>
     <t>Married-civ-spouse &amp; education-num &gt;= 9</t>
   </si>
+  <si>
+    <t>education-num &gt;= 11</t>
+  </si>
 </sst>
 </file>
 
@@ -465,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -474,7 +477,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3821C75D-E7DE-0844-AEC0-63514E66E711}">
   <dimension ref="A1:S1001"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2459,6 +2461,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Q30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R30">
+        <f>COUNTIFS(E2:E1001,"&gt;=11")</f>
+        <v>327</v>
+      </c>
+      <c r="S30">
+        <f>COUNTIFS(E2:E1001,"&gt;=11", O2:O1001, "gr50k")</f>
+        <v>140</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -2554,6 +2567,17 @@
       <c r="P32" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R32">
+        <f>COUNTIF($A$2:$A$1001,"&gt;=37")</f>
+        <v>498</v>
+      </c>
+      <c r="S32">
+        <f>COUNTIFS($A$2:$A$1001,"&gt;=37",$O$2:$O$1001,"=gr50k")</f>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -49809,7 +49833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C04094F-5B52-4346-9F9F-CC80D507072F}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A595" workbookViewId="0">
+    <sheetView topLeftCell="A595" workbookViewId="0">
       <selection activeCell="A77" sqref="A77:A602"/>
     </sheetView>
   </sheetViews>
@@ -49924,7 +49948,7 @@
       <c r="D8" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <f>COUNTIF(B105:B1001,"gr50K")</f>
         <v>204</v>
       </c>
